--- a/dados/Conclusoes/analiseValoresAtributos.xlsx
+++ b/dados/Conclusoes/analiseValoresAtributos.xlsx
@@ -792,19 +792,19 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>3554986</v>
+        <v>4680014</v>
       </c>
       <c r="AE3" t="n">
-        <v>3549981</v>
+        <v>4675006</v>
       </c>
       <c r="AF3" t="n">
-        <v>31648</v>
+        <v>55752</v>
       </c>
       <c r="AG3" t="n">
-        <v>1616549</v>
+        <v>1984290</v>
       </c>
       <c r="AH3" t="n">
-        <v>2130723</v>
+        <v>2659710</v>
       </c>
     </row>
     <row r="4">
@@ -842,17 +842,17 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>3522872</v>
+        <v>4623320</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>1423963</v>
+        <v>2019869</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>5005</v>
+        <v>5008</v>
       </c>
       <c r="AF5" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="n">
-        <v>334869</v>
+        <v>464529</v>
       </c>
       <c r="AH5" t="inlineStr"/>
     </row>
@@ -1055,16 +1055,16 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>435</v>
+        <v>866</v>
       </c>
       <c r="AG8" t="n">
-        <v>17087</v>
+        <v>25421</v>
       </c>
       <c r="AH8" t="n">
-        <v>314</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
@@ -1105,7 +1105,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>1114527</v>
+        <v>1577687</v>
       </c>
       <c r="AH9" t="inlineStr"/>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>332310</v>
+        <v>455160</v>
       </c>
       <c r="AH10" t="inlineStr"/>
     </row>
@@ -1189,7 +1189,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>139252</v>
+        <v>172515</v>
       </c>
       <c r="AH11" t="inlineStr"/>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="AH12" t="inlineStr"/>
     </row>
